--- a/Sura/DataSource - Emision Hogar No Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar No Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6ED4AF-9590-4FFE-8B9B-95AD42126CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF6A19-9B18-4A46-81B9-7E14668FF18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>6091597296</v>
+        <v>1251282873</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>

--- a/Sura/DataSource - Emision Hogar No Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar No Enlatada.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF6A19-9B18-4A46-81B9-7E14668FF18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE61D2E-7593-4A66-8E23-E2ECCE94077D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>Usuario</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>Casa en PB o Depto hasta 1er piso</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
@@ -493,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -578,12 +585,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -592,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>1251282873</v>
+        <v>2617100594</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -619,7 +626,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>
@@ -631,185 +638,202 @@
         <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6328381177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3">
-        <v>616</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>4196656458</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4">
-        <v>616</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5">
-        <v>4196656458</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5">
-        <v>616</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{4D90D6E1-8ECA-4CE7-B6F5-6DB5AD19CB10}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E0E10C7E-B35E-4DA5-97A6-6B834B49663A}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{ABB46273-4BED-4F98-BA04-0B7158C5F4EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593AB3A9-4506-411C-A770-AE63E89BC932}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3">
+        <v>6328381177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1">
+        <v>616</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>4196656458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>616</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>4196656458</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>616</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{4D90D6E1-8ECA-4CE7-B6F5-6DB5AD19CB10}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E0E10C7E-B35E-4DA5-97A6-6B834B49663A}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{ABB46273-4BED-4F98-BA04-0B7158C5F4EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Hogar No Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar No Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE61D2E-7593-4A66-8E23-E2ECCE94077D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A3F53-64D7-49E6-B28C-55D7822271F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>2617100594</v>
+        <v>7821451462</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -626,7 +626,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>

--- a/Sura/DataSource - Emision Hogar No Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar No Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A3F53-64D7-49E6-B28C-55D7822271F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB3202-B747-421E-9957-11EA508C373D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>7821451462</v>
+        <v>2240451788</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -626,7 +626,7 @@
         <v>28</v>
       </c>
       <c r="O2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>

--- a/Sura/DataSource - Emision Hogar No Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar No Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB3202-B747-421E-9957-11EA508C373D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117D4F97-14F5-42B2-9DF9-7EE80E9EC81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +161,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -211,11 +204,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -503,7 +495,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,8 +590,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>2240451788</v>
+      <c r="E2">
+        <v>7635954411</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -673,7 +665,7 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>6328381177</v>
       </c>
       <c r="F1" t="s">
@@ -717,7 +709,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -773,7 +765,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">

--- a/Sura/DataSource - Emision Hogar No Enlatada.xlsx
+++ b/Sura/DataSource - Emision Hogar No Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117D4F97-14F5-42B2-9DF9-7EE80E9EC81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E890B7-D2D5-46C3-9536-952D77E122C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>Usuario</t>
   </si>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t>Casa en PB o Depto hasta 1er piso</t>
-  </si>
-  <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
@@ -494,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +573,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -591,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>7635954411</v>
+        <v>5069929970</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
